--- a/input_public/threshold_definitions/host_combinations_JIAF.xlsx
+++ b/input_public/threshold_definitions/host_combinations_JIAF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="4560" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="edu" sheetId="1" r:id="rId1"/>
